--- a/Solutions/solution_models_EF21.xlsx
+++ b/Solutions/solution_models_EF21.xlsx
@@ -5,24 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\campus.fu-berlin.de\user\home_h\hvrijmoed\Thermolab-main\v_23_10_09\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\Github\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34397555-2908-4A89-9B48-675AFB5384D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFAEAB0-C2F7-4294-9D28-58B7FC7D9678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-33135" yWindow="645" windowWidth="23655" windowHeight="15480" activeTab="9" xr2:uid="{EF84C4B9-D779-4E3F-B62A-26420BF8ED2A}"/>
+    <workbookView xWindow="2625" yWindow="1650" windowWidth="23655" windowHeight="15480" activeTab="3" xr2:uid="{EF84C4B9-D779-4E3F-B62A-26420BF8ED2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="11" r:id="rId1"/>
     <sheet name="Olivine" sheetId="2" r:id="rId2"/>
     <sheet name="Antigorite" sheetId="3" r:id="rId3"/>
-    <sheet name="Brucite" sheetId="4" r:id="rId4"/>
-    <sheet name="Talc" sheetId="5" r:id="rId5"/>
-    <sheet name="Orthopyroxene" sheetId="6" r:id="rId6"/>
-    <sheet name="Chlorite" sheetId="7" r:id="rId7"/>
-    <sheet name="Garnet" sheetId="8" r:id="rId8"/>
-    <sheet name="Spinel" sheetId="10" r:id="rId9"/>
-    <sheet name="Lizardite" sheetId="12" r:id="rId10"/>
+    <sheet name="Brucite (2)" sheetId="13" r:id="rId4"/>
+    <sheet name="Brucite" sheetId="4" r:id="rId5"/>
+    <sheet name="Talc" sheetId="5" r:id="rId6"/>
+    <sheet name="Orthopyroxene" sheetId="6" r:id="rId7"/>
+    <sheet name="Chlorite" sheetId="7" r:id="rId8"/>
+    <sheet name="Garnet" sheetId="8" r:id="rId9"/>
+    <sheet name="Spinel" sheetId="10" r:id="rId10"/>
+    <sheet name="Lizardite" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="101">
   <si>
     <t>Modeltype</t>
   </si>
@@ -340,6 +341,12 @@
   </si>
   <si>
     <t>fliz,tc-ds633</t>
+  </si>
+  <si>
+    <t>M0</t>
+  </si>
+  <si>
+    <t>fbr,tc-ds633</t>
   </si>
 </sst>
 </file>
@@ -697,7 +704,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -817,10 +824,259 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034B7D30-79D8-4EE2-AA72-AAF4766A8FCE}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <v>18500</v>
+      </c>
+      <c r="C20">
+        <v>40000</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4D5436-75BD-41AA-AB99-0A6FE4652DF2}">
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -1733,6 +1989,128 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C24A454-5D99-4B41-9830-B9433EF0A31A}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C13">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A5922-32A1-4525-A8D5-08291F88DE91}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -1879,7 +2257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11195E3F-6D4E-40FF-8E1F-830C43F1246E}">
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -2488,7 +2866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664EBA9F-485E-4D12-9274-D8DC2566B140}">
   <dimension ref="A1:I38"/>
   <sheetViews>
@@ -3232,7 +3610,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9786E4BD-A981-45AF-BC58-5212707790B9}">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -4192,7 +4570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE0E4CC-BF23-4D97-B5ED-C14DA256414F}">
   <dimension ref="A1:E26"/>
   <sheetViews>
@@ -4425,253 +4803,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034B7D30-79D8-4EE2-AA72-AAF4766A8FCE}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="C14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>18500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20">
-        <v>18500</v>
-      </c>
-      <c r="C20">
-        <v>40000</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Solutions/solution_models_EF21.xlsx
+++ b/Solutions/solution_models_EF21.xlsx
@@ -5,25 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\Github\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\v_23_10_09\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFAEAB0-C2F7-4294-9D28-58B7FC7D9678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA4C05B-EC98-4109-B6BE-A6D68319042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2625" yWindow="1650" windowWidth="23655" windowHeight="15480" activeTab="3" xr2:uid="{EF84C4B9-D779-4E3F-B62A-26420BF8ED2A}"/>
+    <workbookView xWindow="5550" yWindow="2775" windowWidth="23655" windowHeight="15480" activeTab="4" xr2:uid="{EF84C4B9-D779-4E3F-B62A-26420BF8ED2A}"/>
   </bookViews>
   <sheets>
     <sheet name="Fluid" sheetId="11" r:id="rId1"/>
     <sheet name="Olivine" sheetId="2" r:id="rId2"/>
     <sheet name="Antigorite" sheetId="3" r:id="rId3"/>
-    <sheet name="Brucite (2)" sheetId="13" r:id="rId4"/>
-    <sheet name="Brucite" sheetId="4" r:id="rId5"/>
-    <sheet name="Talc" sheetId="5" r:id="rId6"/>
-    <sheet name="Orthopyroxene" sheetId="6" r:id="rId7"/>
-    <sheet name="Chlorite" sheetId="7" r:id="rId8"/>
-    <sheet name="Garnet" sheetId="8" r:id="rId9"/>
-    <sheet name="Spinel" sheetId="10" r:id="rId10"/>
-    <sheet name="Lizardite" sheetId="12" r:id="rId11"/>
+    <sheet name="Brucite" sheetId="4" r:id="rId4"/>
+    <sheet name="Clinohumite" sheetId="15" r:id="rId5"/>
+    <sheet name="Pyrrhotite" sheetId="14" r:id="rId6"/>
+    <sheet name="Talc" sheetId="5" r:id="rId7"/>
+    <sheet name="Orthopyroxene" sheetId="6" r:id="rId8"/>
+    <sheet name="Chlorite" sheetId="7" r:id="rId9"/>
+    <sheet name="Garnet" sheetId="8" r:id="rId10"/>
+    <sheet name="Spinel" sheetId="10" r:id="rId11"/>
+    <sheet name="Lizardite" sheetId="12" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="107">
   <si>
     <t>Modeltype</t>
   </si>
@@ -343,10 +344,28 @@
     <t>fliz,tc-ds633</t>
   </si>
   <si>
-    <t>M0</t>
-  </si>
-  <si>
-    <t>fbr,tc-ds633</t>
+    <t>trov,tc-ds633</t>
+  </si>
+  <si>
+    <t>trot,tc-ds633</t>
+  </si>
+  <si>
+    <t>trov</t>
+  </si>
+  <si>
+    <t>trot</t>
+  </si>
+  <si>
+    <t>chum,tc-ds633</t>
+  </si>
+  <si>
+    <t>chuf,tc-ds633</t>
+  </si>
+  <si>
+    <t>chum</t>
+  </si>
+  <si>
+    <t>chuf</t>
   </si>
 </sst>
 </file>
@@ -704,7 +723,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,6 +843,241 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE0E4CC-BF23-4D97-B5ED-C14DA256414F}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C13">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>100</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="3">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034B7D30-79D8-4EE2-AA72-AAF4766A8FCE}">
   <dimension ref="A1:E20"/>
   <sheetViews>
@@ -1072,12 +1326,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4D5436-75BD-41AA-AB99-0A6FE4652DF2}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1453,7 @@
   <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C31"/>
+      <selection activeCell="A16" sqref="A16:C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,128 +2243,6 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C24A454-5D99-4B41-9830-B9433EF0A31A}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="C13">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A5922-32A1-4525-A8D5-08291F88DE91}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -2257,7 +2389,337 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB84638-00A4-49FD-BD1E-26BAF827F71F}">
+  <dimension ref="A1:C18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="1">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13" si="0">1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="2">
+        <v>36000</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B632DE35-A95A-473D-A331-529862D5663F}">
+  <dimension ref="A1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.875</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13" si="0">1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>-3190</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-3190</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11195E3F-6D4E-40FF-8E1F-830C43F1246E}">
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -2866,7 +3328,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664EBA9F-485E-4D12-9274-D8DC2566B140}">
   <dimension ref="A1:I38"/>
   <sheetViews>
@@ -3610,7 +4072,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9786E4BD-A981-45AF-BC58-5212707790B9}">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -4568,239 +5030,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE0E4CC-BF23-4D97-B5ED-C14DA256414F}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="C13">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>100</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="3">
-        <v>100</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Solutions/solution_models_EF21.xlsx
+++ b/Solutions/solution_models_EF21.xlsx
@@ -5,26 +5,27 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\v_23_10_09\Solutions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Thermolab\v_23_10_24\Solutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA4C05B-EC98-4109-B6BE-A6D68319042D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{135CC774-1113-4132-8CF8-06353D836419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5550" yWindow="2775" windowWidth="23655" windowHeight="15480" activeTab="4" xr2:uid="{EF84C4B9-D779-4E3F-B62A-26420BF8ED2A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF84C4B9-D779-4E3F-B62A-26420BF8ED2A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Fluid" sheetId="11" r:id="rId1"/>
-    <sheet name="Olivine" sheetId="2" r:id="rId2"/>
-    <sheet name="Antigorite" sheetId="3" r:id="rId3"/>
-    <sheet name="Brucite" sheetId="4" r:id="rId4"/>
-    <sheet name="Clinohumite" sheetId="15" r:id="rId5"/>
-    <sheet name="Pyrrhotite" sheetId="14" r:id="rId6"/>
-    <sheet name="Talc" sheetId="5" r:id="rId7"/>
-    <sheet name="Orthopyroxene" sheetId="6" r:id="rId8"/>
-    <sheet name="Chlorite" sheetId="7" r:id="rId9"/>
-    <sheet name="Garnet" sheetId="8" r:id="rId10"/>
-    <sheet name="Spinel" sheetId="10" r:id="rId11"/>
-    <sheet name="Lizardite" sheetId="12" r:id="rId12"/>
+    <sheet name="Fluid (SiO2)" sheetId="16" r:id="rId1"/>
+    <sheet name="Fluid" sheetId="11" r:id="rId2"/>
+    <sheet name="Olivine" sheetId="2" r:id="rId3"/>
+    <sheet name="Antigorite" sheetId="3" r:id="rId4"/>
+    <sheet name="Brucite" sheetId="4" r:id="rId5"/>
+    <sheet name="Clinohumite" sheetId="15" r:id="rId6"/>
+    <sheet name="Pyrrhotite" sheetId="14" r:id="rId7"/>
+    <sheet name="Talc" sheetId="5" r:id="rId8"/>
+    <sheet name="Orthopyroxene" sheetId="6" r:id="rId9"/>
+    <sheet name="Chlorite" sheetId="7" r:id="rId10"/>
+    <sheet name="Garnet" sheetId="8" r:id="rId11"/>
+    <sheet name="Spinel" sheetId="10" r:id="rId12"/>
+    <sheet name="Lizardite" sheetId="12" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="110">
   <si>
     <t>Modeltype</t>
   </si>
@@ -366,6 +367,15 @@
   </si>
   <si>
     <t>chuf</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>SiO2,aq</t>
+  </si>
+  <si>
+    <t>aqSi,tc-ds633</t>
   </si>
 </sst>
 </file>
@@ -719,6 +729,1717 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A521B7-0354-4CB3-AE8D-C85E66788D38}">
+  <dimension ref="A1:I18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>0.1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1E-3</v>
+      </c>
+      <c r="C13">
+        <f>1/90</f>
+        <v>1.1111111111111112E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9786E4BD-A981-45AF-BC58-5212707790B9}">
+  <dimension ref="A1:N30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>45</v>
+      </c>
+      <c r="I3" t="s">
+        <v>63</v>
+      </c>
+      <c r="J3" t="s">
+        <v>63</v>
+      </c>
+      <c r="K3" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="M3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>2</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>81</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>4</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+      <c r="N15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" ref="C19:N19" si="0">1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" t="s">
+        <v>74</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" t="s">
+        <v>76</v>
+      </c>
+      <c r="G22" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" t="s">
+        <v>78</v>
+      </c>
+      <c r="I22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>17000</v>
+      </c>
+      <c r="D23">
+        <v>17000</v>
+      </c>
+      <c r="E23">
+        <v>20000</v>
+      </c>
+      <c r="F23">
+        <v>30000</v>
+      </c>
+      <c r="G23">
+        <v>21000</v>
+      </c>
+      <c r="H23">
+        <v>2000</v>
+      </c>
+      <c r="I23">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B24">
+        <v>17000</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>16000</v>
+      </c>
+      <c r="E24">
+        <v>37000</v>
+      </c>
+      <c r="F24">
+        <v>20000</v>
+      </c>
+      <c r="G24">
+        <v>4000</v>
+      </c>
+      <c r="H24">
+        <v>15000</v>
+      </c>
+      <c r="I24">
+        <v>23000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>74</v>
+      </c>
+      <c r="B25">
+        <v>17000</v>
+      </c>
+      <c r="C25">
+        <v>16000</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>30000</v>
+      </c>
+      <c r="F25">
+        <v>29000</v>
+      </c>
+      <c r="G25">
+        <v>13000</v>
+      </c>
+      <c r="H25">
+        <v>19000</v>
+      </c>
+      <c r="I25">
+        <v>17000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26">
+        <v>20000</v>
+      </c>
+      <c r="C26">
+        <v>37000</v>
+      </c>
+      <c r="D26">
+        <v>30000</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>18000</v>
+      </c>
+      <c r="G26">
+        <v>33000</v>
+      </c>
+      <c r="H26">
+        <v>22000</v>
+      </c>
+      <c r="I26">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27">
+        <v>30000</v>
+      </c>
+      <c r="C27">
+        <v>20000</v>
+      </c>
+      <c r="D27">
+        <v>29000</v>
+      </c>
+      <c r="E27">
+        <v>18000</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>24000</v>
+      </c>
+      <c r="H27">
+        <v>28600</v>
+      </c>
+      <c r="I27">
+        <v>19000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28">
+        <v>21000</v>
+      </c>
+      <c r="C28">
+        <v>4000</v>
+      </c>
+      <c r="D28">
+        <v>13000</v>
+      </c>
+      <c r="E28">
+        <v>33000</v>
+      </c>
+      <c r="F28">
+        <v>24000</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>19000</v>
+      </c>
+      <c r="I28">
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29">
+        <v>2000</v>
+      </c>
+      <c r="C29">
+        <v>15000</v>
+      </c>
+      <c r="D29">
+        <v>19000</v>
+      </c>
+      <c r="E29">
+        <v>22000</v>
+      </c>
+      <c r="F29">
+        <v>28600</v>
+      </c>
+      <c r="G29">
+        <v>19000</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30">
+        <v>6000</v>
+      </c>
+      <c r="C30">
+        <v>23000</v>
+      </c>
+      <c r="D30">
+        <v>17000</v>
+      </c>
+      <c r="E30">
+        <v>4000</v>
+      </c>
+      <c r="F30">
+        <v>19000</v>
+      </c>
+      <c r="G30">
+        <v>22000</v>
+      </c>
+      <c r="H30">
+        <v>8000</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE0E4CC-BF23-4D97-B5ED-C14DA256414F}">
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="C13">
+        <f>1/15</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4000</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4000</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="3">
+        <v>0</v>
+      </c>
+      <c r="C21" s="3">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
+      <c r="C22" s="3">
+        <v>0</v>
+      </c>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="3">
+        <v>0</v>
+      </c>
+      <c r="C25" s="3">
+        <v>100</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="3">
+        <v>100</v>
+      </c>
+      <c r="C26" s="3">
+        <v>0</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034B7D30-79D8-4EE2-AA72-AAF4766A8FCE}">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="D14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E14">
+        <v>6.7000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>18500</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20">
+        <v>18500</v>
+      </c>
+      <c r="C20">
+        <v>40000</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4D5436-75BD-41AA-AB99-0A6FE4652DF2}">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6.6666666999999999E-2</v>
+      </c>
+      <c r="C13">
+        <v>6.6666666999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E539C28-98EE-4771-87C8-89AB015FC83F}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -842,613 +2563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE0E4CC-BF23-4D97-B5ED-C14DA256414F}">
-  <dimension ref="A1:E26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="C13">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>84</v>
-      </c>
-      <c r="C16" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>84</v>
-      </c>
-      <c r="B17" s="3">
-        <v>0</v>
-      </c>
-      <c r="C17" s="3">
-        <v>4000</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="3">
-        <v>4000</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="3">
-        <v>0</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="B22" s="3">
-        <v>0</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="3">
-        <v>0</v>
-      </c>
-      <c r="C25" s="3">
-        <v>100</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" s="3">
-        <v>100</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0</v>
-      </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{034B7D30-79D8-4EE2-AA72-AAF4766A8FCE}">
-  <dimension ref="A1:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>2</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>91</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="C14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="D14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="E14">
-        <v>6.7000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>88</v>
-      </c>
-      <c r="C17" t="s">
-        <v>87</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>18500</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20">
-        <v>18500</v>
-      </c>
-      <c r="C20">
-        <v>40000</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B4D5436-75BD-41AA-AB99-0A6FE4652DF2}">
-  <dimension ref="A1:C14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>6.6666666999999999E-2</v>
-      </c>
-      <c r="C13">
-        <v>6.6666666999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B93C6B5-E2FD-4153-8CA1-874207CAC287}">
   <dimension ref="A1:E31"/>
   <sheetViews>
@@ -1724,7 +2839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56C29D2-B77B-40C8-AB61-220943013663}">
   <dimension ref="A1:I32"/>
   <sheetViews>
@@ -2242,7 +3357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B7A5922-32A1-4525-A8D5-08291F88DE91}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -2389,11 +3504,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DB84638-00A4-49FD-BD1E-26BAF827F71F}">
   <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -2546,7 +3661,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B632DE35-A95A-473D-A331-529862D5663F}">
   <dimension ref="A1:C26"/>
   <sheetViews>
@@ -2719,7 +3834,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11195E3F-6D4E-40FF-8E1F-830C43F1246E}">
   <dimension ref="A1:J26"/>
   <sheetViews>
@@ -3328,7 +4443,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664EBA9F-485E-4D12-9274-D8DC2566B140}">
   <dimension ref="A1:I38"/>
   <sheetViews>
@@ -4070,964 +5185,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9786E4BD-A981-45AF-BC58-5212707790B9}">
-  <dimension ref="A1:N30"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" t="s">
-        <v>63</v>
-      </c>
-      <c r="J3" t="s">
-        <v>63</v>
-      </c>
-      <c r="K3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>6</v>
-      </c>
-      <c r="I4" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>4</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>70</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>2</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>2</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-      <c r="N12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>4</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>4</v>
-      </c>
-      <c r="G15">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>4</v>
-      </c>
-      <c r="I15">
-        <v>1</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
-      </c>
-      <c r="I18">
-        <v>1</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19">
-        <f>1/15</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="C19">
-        <f t="shared" ref="C19:N19" si="0">1/15</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="G19">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="I19">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J19">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="L19">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="N19">
-        <f t="shared" si="0"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" t="s">
-        <v>74</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G22" t="s">
-        <v>77</v>
-      </c>
-      <c r="H22" t="s">
-        <v>78</v>
-      </c>
-      <c r="I22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>17000</v>
-      </c>
-      <c r="D23">
-        <v>17000</v>
-      </c>
-      <c r="E23">
-        <v>20000</v>
-      </c>
-      <c r="F23">
-        <v>30000</v>
-      </c>
-      <c r="G23">
-        <v>21000</v>
-      </c>
-      <c r="H23">
-        <v>2000</v>
-      </c>
-      <c r="I23">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>73</v>
-      </c>
-      <c r="B24">
-        <v>17000</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>16000</v>
-      </c>
-      <c r="E24">
-        <v>37000</v>
-      </c>
-      <c r="F24">
-        <v>20000</v>
-      </c>
-      <c r="G24">
-        <v>4000</v>
-      </c>
-      <c r="H24">
-        <v>15000</v>
-      </c>
-      <c r="I24">
-        <v>23000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25">
-        <v>17000</v>
-      </c>
-      <c r="C25">
-        <v>16000</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>30000</v>
-      </c>
-      <c r="F25">
-        <v>29000</v>
-      </c>
-      <c r="G25">
-        <v>13000</v>
-      </c>
-      <c r="H25">
-        <v>19000</v>
-      </c>
-      <c r="I25">
-        <v>17000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26">
-        <v>20000</v>
-      </c>
-      <c r="C26">
-        <v>37000</v>
-      </c>
-      <c r="D26">
-        <v>30000</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>18000</v>
-      </c>
-      <c r="G26">
-        <v>33000</v>
-      </c>
-      <c r="H26">
-        <v>22000</v>
-      </c>
-      <c r="I26">
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27">
-        <v>30000</v>
-      </c>
-      <c r="C27">
-        <v>20000</v>
-      </c>
-      <c r="D27">
-        <v>29000</v>
-      </c>
-      <c r="E27">
-        <v>18000</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>24000</v>
-      </c>
-      <c r="H27">
-        <v>28600</v>
-      </c>
-      <c r="I27">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28">
-        <v>21000</v>
-      </c>
-      <c r="C28">
-        <v>4000</v>
-      </c>
-      <c r="D28">
-        <v>13000</v>
-      </c>
-      <c r="E28">
-        <v>33000</v>
-      </c>
-      <c r="F28">
-        <v>24000</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>19000</v>
-      </c>
-      <c r="I28">
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29">
-        <v>2000</v>
-      </c>
-      <c r="C29">
-        <v>15000</v>
-      </c>
-      <c r="D29">
-        <v>19000</v>
-      </c>
-      <c r="E29">
-        <v>22000</v>
-      </c>
-      <c r="F29">
-        <v>28600</v>
-      </c>
-      <c r="G29">
-        <v>19000</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>8000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30">
-        <v>6000</v>
-      </c>
-      <c r="C30">
-        <v>23000</v>
-      </c>
-      <c r="D30">
-        <v>17000</v>
-      </c>
-      <c r="E30">
-        <v>4000</v>
-      </c>
-      <c r="F30">
-        <v>19000</v>
-      </c>
-      <c r="G30">
-        <v>22000</v>
-      </c>
-      <c r="H30">
-        <v>8000</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>